--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5F3787A-EC79-475B-AD19-72531C049506}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAAC20E-3B69-4F03-B845-5C7C5899A407}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{8965A2DE-76A2-4C04-84B8-55CA1B909DF1}"/>
   </bookViews>
@@ -28,9 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
-    <t>% квартиры</t>
-  </si>
-  <si>
     <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
@@ -40,9 +37,6 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
     <t>1.Абделазиз Мохамед Яхия Мохамед Атта</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -268,19 +259,28 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Общая сумма графы "итого", руб</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Просрочка, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>СУММ(E3:E38)</t>
+  </si>
+  <si>
+    <t>СРЗНАЧ(C3:C38)</t>
+  </si>
+  <si>
+    <t>МАКС(H3:H38)</t>
+  </si>
+  <si>
+    <t>МАКС(K3:K38)</t>
   </si>
 </sst>
 </file>
@@ -666,15 +666,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B13E4F-95B9-46FC-88F1-1F1325C2EAF4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="13" width="13.125" customWidth="1"/>
+    <col min="1" max="11" width="15.75" customWidth="1"/>
+    <col min="12" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -684,37 +683,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -723,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <f>70</f>
@@ -766,7 +765,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4">
         <f>C3-1/2</f>
@@ -777,7 +776,7 @@
         <v>16.5</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f>C4*D4</f>
         <v>1146.75</v>
       </c>
       <c r="F4" s="4">
@@ -795,32 +794,32 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
         <v>1146.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C38" si="5">C4-1/2</f>
+        <f t="shared" ref="C5:C38" si="4">C4-1/2</f>
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D34" si="6">$A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="5">$A$1*1.1</f>
         <v>16.5</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E38" si="6">C5*D5</f>
         <v>1138.5</v>
       </c>
       <c r="F5" s="4">
@@ -838,32 +837,32 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1138.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1130.25</v>
       </c>
       <c r="F6" s="4">
@@ -881,32 +880,32 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1130.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1122</v>
       </c>
       <c r="F7" s="4">
@@ -924,32 +923,32 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1113.75</v>
       </c>
       <c r="F8" s="4">
@@ -967,32 +966,32 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1113.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1105.5</v>
       </c>
       <c r="F9" s="4">
@@ -1010,32 +1009,32 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1105.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1097.25</v>
       </c>
       <c r="F10" s="4">
@@ -1053,32 +1052,32 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1097.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1089</v>
       </c>
       <c r="F11" s="4">
@@ -1096,32 +1095,32 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1089</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1080.75</v>
       </c>
       <c r="F12" s="4">
@@ -1139,32 +1138,32 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1090.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1072.5</v>
       </c>
       <c r="F13" s="4">
@@ -1182,32 +1181,32 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1092.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1064.25</v>
       </c>
       <c r="F14" s="4">
@@ -1225,32 +1224,32 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1094.25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1056</v>
       </c>
       <c r="F15" s="4">
@@ -1268,32 +1267,32 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1047.75</v>
       </c>
       <c r="F16" s="4">
@@ -1311,32 +1310,32 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1097.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1039.5</v>
       </c>
       <c r="F17" s="4">
@@ -1354,32 +1353,32 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1099.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1031.25</v>
       </c>
       <c r="F18" s="4">
@@ -1397,32 +1396,32 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1101.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1023</v>
       </c>
       <c r="F19" s="4">
@@ -1440,32 +1439,32 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1103</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1014.75</v>
       </c>
       <c r="F20" s="4">
@@ -1483,32 +1482,32 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1104.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1006.5</v>
       </c>
       <c r="F21" s="4">
@@ -1526,32 +1525,32 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1106.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>998.25</v>
       </c>
       <c r="F22" s="4">
@@ -1569,32 +1568,32 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1108.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>990</v>
       </c>
       <c r="F23" s="4">
@@ -1612,32 +1611,32 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>981.75</v>
       </c>
       <c r="F24" s="4">
@@ -1655,32 +1654,32 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1111.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>973.5</v>
       </c>
       <c r="F25" s="4">
@@ -1698,32 +1697,32 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1113.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>965.25</v>
       </c>
       <c r="F26" s="4">
@@ -1741,32 +1740,32 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1115.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>957</v>
       </c>
       <c r="F27" s="4">
@@ -1784,32 +1783,32 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1117</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>948.75</v>
       </c>
       <c r="F28" s="4">
@@ -1827,32 +1826,32 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1118.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>940.5</v>
       </c>
       <c r="F29" s="4">
@@ -1870,32 +1869,32 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1120.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>932.25</v>
       </c>
       <c r="F30" s="4">
@@ -1913,11 +1912,11 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1122.25</v>
       </c>
     </row>
@@ -1927,18 +1926,18 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f t="shared" si="6"/>
+        <f>$A$1*1.1</f>
         <v>16.5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>924</v>
       </c>
       <c r="F31" s="4">
@@ -1956,32 +1955,32 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>915.75</v>
       </c>
       <c r="F32" s="4">
@@ -1999,32 +1998,32 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1125.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>907.5</v>
       </c>
       <c r="F33" s="4">
@@ -2042,32 +2041,32 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1127.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>16.5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>899.25</v>
       </c>
       <c r="F34" s="4">
@@ -2085,24 +2084,24 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1129.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35">
@@ -2110,7 +2109,7 @@
         <v>8.25</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>445.5</v>
       </c>
       <c r="F35" s="4">
@@ -2128,24 +2127,24 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>685.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36">
@@ -2153,7 +2152,7 @@
         <v>8.25</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f>C36*D36</f>
         <v>441.375</v>
       </c>
       <c r="F36" s="4">
@@ -2171,24 +2170,24 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>691.375</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37">
@@ -2196,7 +2195,7 @@
         <v>8.25</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>437.25</v>
       </c>
       <c r="F37" s="4">
@@ -2214,24 +2213,24 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>697.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38">
@@ -2239,7 +2238,7 @@
         <v>8.25</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>433.125</v>
       </c>
       <c r="F38" s="4">
@@ -2257,48 +2256,48 @@
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>703.125</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40">
+      <c r="B40">
         <f>SUM(E3:E38)</f>
         <v>34625.25</v>
       </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41">
+      <c r="B41">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42">
+      <c r="B42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43">
+      <c r="B43">
         <f>MAX(K3:K38)</f>
         <v>1155</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2316,172 +2315,172 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAAC20E-3B69-4F03-B845-5C7C5899A407}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49BCED41-22A4-4690-B432-6C8817B84C9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11580" xr2:uid="{8965A2DE-76A2-4C04-84B8-55CA1B909DF1}"/>
   </bookViews>
@@ -259,28 +259,28 @@
     <t>Итого, руб.</t>
   </si>
   <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
     <t>№ квартиры</t>
   </si>
   <si>
+    <t>Общая сумма графы "итого", руб.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
     <t>Просрочка, руб.</t>
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>СУММ(E3:E38)</t>
-  </si>
-  <si>
-    <t>СРЗНАЧ(C3:C38)</t>
-  </si>
-  <si>
-    <t>МАКС(H3:H38)</t>
-  </si>
-  <si>
-    <t>МАКС(K3:K38)</t>
   </si>
 </sst>
 </file>
@@ -666,14 +666,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B13E4F-95B9-46FC-88F1-1F1325C2EAF4}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="15.75" customWidth="1"/>
-    <col min="12" max="13" width="13.125" customWidth="1"/>
+    <col min="1" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="13" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -683,13 +684,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>73</v>
@@ -704,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>75</v>
@@ -776,7 +777,7 @@
         <v>16.5</v>
       </c>
       <c r="E4">
-        <f>C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>1146.75</v>
       </c>
       <c r="F4" s="4">
@@ -794,32 +795,32 @@
         <v>10</v>
       </c>
       <c r="J4">
-        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K38" si="2">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>1146.75</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C38" si="4">C4-1/2</f>
+        <f t="shared" ref="C5:C38" si="5">C4-1/2</f>
         <v>69</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D34" si="5">$A$1*1.1</f>
+        <f t="shared" ref="D5:D34" si="6">$A$1*1.1</f>
         <v>16.5</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E4:E38" si="6">C5*D5</f>
+        <f t="shared" si="1"/>
         <v>1138.5</v>
       </c>
       <c r="F5" s="4">
@@ -837,32 +838,32 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1138.5</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1130.25</v>
       </c>
       <c r="F6" s="4">
@@ -880,32 +881,32 @@
         <v>10</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1130.25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1122</v>
       </c>
       <c r="F7" s="4">
@@ -923,32 +924,32 @@
         <v>10</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1122</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1113.75</v>
       </c>
       <c r="F8" s="4">
@@ -966,32 +967,32 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1113.75</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1105.5</v>
       </c>
       <c r="F9" s="4">
@@ -1009,32 +1010,32 @@
         <v>10</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1105.5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>44</v>
       </c>
       <c r="C10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1097.25</v>
       </c>
       <c r="F10" s="4">
@@ -1052,32 +1053,32 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1097.25</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1089</v>
       </c>
       <c r="F11" s="4">
@@ -1095,32 +1096,32 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1089</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>46</v>
       </c>
       <c r="C12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1080.75</v>
       </c>
       <c r="F12" s="4">
@@ -1138,32 +1139,32 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1090.75</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1072.5</v>
       </c>
       <c r="F13" s="4">
@@ -1181,32 +1182,32 @@
         <v>10</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1092.5</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>48</v>
       </c>
       <c r="C14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1064.25</v>
       </c>
       <c r="F14" s="4">
@@ -1224,32 +1225,32 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1094.25</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1056</v>
       </c>
       <c r="F15" s="4">
@@ -1267,32 +1268,32 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1096</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>50</v>
       </c>
       <c r="C16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1047.75</v>
       </c>
       <c r="F16" s="4">
@@ -1310,32 +1311,32 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1097.75</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1039.5</v>
       </c>
       <c r="F17" s="4">
@@ -1353,32 +1354,32 @@
         <v>10</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1099.5</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
       </c>
       <c r="C18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1031.25</v>
       </c>
       <c r="F18" s="4">
@@ -1396,32 +1397,32 @@
         <v>10</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1101.25</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1023</v>
       </c>
       <c r="F19" s="4">
@@ -1439,32 +1440,32 @@
         <v>10</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1103</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
       </c>
       <c r="C20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1014.75</v>
       </c>
       <c r="F20" s="4">
@@ -1482,32 +1483,32 @@
         <v>10</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1104.75</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>1006.5</v>
       </c>
       <c r="F21" s="4">
@@ -1525,32 +1526,32 @@
         <v>10</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1106.5</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>998.25</v>
       </c>
       <c r="F22" s="4">
@@ -1568,32 +1569,32 @@
         <v>10</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1108.25</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>990</v>
       </c>
       <c r="F23" s="4">
@@ -1611,32 +1612,32 @@
         <v>10</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1110</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>981.75</v>
       </c>
       <c r="F24" s="4">
@@ -1654,32 +1655,32 @@
         <v>10</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1111.75</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>973.5</v>
       </c>
       <c r="F25" s="4">
@@ -1697,32 +1698,32 @@
         <v>10</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1113.5</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>965.25</v>
       </c>
       <c r="F26" s="4">
@@ -1740,32 +1741,32 @@
         <v>10</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1115.25</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>61</v>
       </c>
       <c r="C27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>957</v>
       </c>
       <c r="F27" s="4">
@@ -1783,32 +1784,32 @@
         <v>10</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1117</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
       </c>
       <c r="C28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>948.75</v>
       </c>
       <c r="F28" s="4">
@@ -1826,32 +1827,32 @@
         <v>10</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1118.75</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>63</v>
       </c>
       <c r="C29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>940.5</v>
       </c>
       <c r="F29" s="4">
@@ -1869,32 +1870,32 @@
         <v>10</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1120.5</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
       </c>
       <c r="C30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>932.25</v>
       </c>
       <c r="F30" s="4">
@@ -1912,11 +1913,11 @@
         <v>10</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1122.25</v>
       </c>
     </row>
@@ -1929,15 +1930,15 @@
         <v>65</v>
       </c>
       <c r="C31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>924</v>
       </c>
       <c r="F31" s="4">
@@ -1955,32 +1956,32 @@
         <v>10</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1124</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
       </c>
       <c r="C32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>915.75</v>
       </c>
       <c r="F32" s="4">
@@ -1998,32 +1999,32 @@
         <v>10</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1125.75</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
       <c r="C33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>907.5</v>
       </c>
       <c r="F33" s="4">
@@ -2041,32 +2042,32 @@
         <v>10</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1127.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>68</v>
       </c>
       <c r="C34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16.5</v>
       </c>
       <c r="E34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>899.25</v>
       </c>
       <c r="F34" s="4">
@@ -2084,24 +2085,24 @@
         <v>10</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1129.25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
       <c r="C35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35">
@@ -2109,7 +2110,7 @@
         <v>8.25</v>
       </c>
       <c r="E35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>445.5</v>
       </c>
       <c r="F35" s="4">
@@ -2127,24 +2128,24 @@
         <v>10</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>685.5</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>70</v>
       </c>
       <c r="C36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36">
@@ -2152,7 +2153,7 @@
         <v>8.25</v>
       </c>
       <c r="E36">
-        <f>C36*D36</f>
+        <f t="shared" si="1"/>
         <v>441.375</v>
       </c>
       <c r="F36" s="4">
@@ -2170,24 +2171,24 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>691.375</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>72</v>
       </c>
       <c r="C37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37">
@@ -2195,7 +2196,7 @@
         <v>8.25</v>
       </c>
       <c r="E37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>437.25</v>
       </c>
       <c r="F37" s="4">
@@ -2213,24 +2214,24 @@
         <v>10</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>697.25</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>71</v>
       </c>
       <c r="C38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38">
@@ -2238,7 +2239,7 @@
         <v>8.25</v>
       </c>
       <c r="E38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>433.125</v>
       </c>
       <c r="F38" s="4">
@@ -2256,48 +2257,48 @@
         <v>10</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>703.125</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40">
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40">
         <f>SUM(E3:E38)</f>
         <v>34625.25</v>
       </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B41">
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B42">
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B43">
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43">
         <f>MAX(K3:K38)</f>
         <v>1155</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971EF04B-2C4E-4EB8-A913-8E0257AAEE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396B24C-6EF7-436E-A045-7DE82B4902C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2772" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв. м.</t>
   </si>
   <si>
@@ -177,10 +174,13 @@
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
   </si>
 </sst>
 </file>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -601,34 +601,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13" t="s">
         <v>7</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>8</v>
       </c>
       <c r="L2" s="13"/>
     </row>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6">
         <v>70</v>
@@ -687,7 +687,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="6">
         <f>C3-0.5</f>
@@ -739,7 +739,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="6">
         <f t="shared" si="6"/>
@@ -843,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6">
         <f t="shared" si="6"/>
@@ -895,7 +895,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="6">
         <f t="shared" si="6"/>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6">
         <f t="shared" si="6"/>
@@ -999,7 +999,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6">
         <f t="shared" si="6"/>
@@ -1051,7 +1051,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6">
         <f t="shared" si="6"/>
@@ -1103,7 +1103,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="6">
         <f t="shared" si="6"/>
@@ -1155,7 +1155,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6">
         <f t="shared" si="6"/>
@@ -1207,7 +1207,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6">
         <f t="shared" si="6"/>
@@ -1259,7 +1259,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="6">
         <f t="shared" si="6"/>
@@ -1311,7 +1311,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="6">
         <f t="shared" si="6"/>
@@ -1363,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="6">
         <f t="shared" si="6"/>
@@ -1415,7 +1415,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="6">
         <f t="shared" si="6"/>
@@ -1467,7 +1467,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="6">
         <f t="shared" si="6"/>
@@ -1519,7 +1519,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="6">
         <f t="shared" si="6"/>
@@ -1571,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="6"/>
@@ -1623,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" si="6"/>
@@ -1675,7 +1675,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="6"/>
@@ -1727,7 +1727,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6">
         <f t="shared" si="6"/>
@@ -1779,7 +1779,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="6"/>
@@ -1831,7 +1831,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6">
         <f t="shared" si="6"/>
@@ -1883,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="6"/>
@@ -1935,7 +1935,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="6">
         <f t="shared" si="6"/>
@@ -1987,7 +1987,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="6"/>
@@ -2039,7 +2039,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="6">
         <f t="shared" si="6"/>
@@ -2091,7 +2091,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="6">
         <f t="shared" si="6"/>
@@ -2143,7 +2143,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="6">
         <f t="shared" si="6"/>
@@ -2195,7 +2195,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="6">
         <f t="shared" si="6"/>
@@ -2247,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="6">
         <f t="shared" si="6"/>
@@ -2299,7 +2299,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="6">
         <f t="shared" si="6"/>
@@ -2351,7 +2351,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6">
         <f t="shared" si="6"/>
@@ -2403,7 +2403,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="6">
         <f t="shared" si="6"/>
@@ -2455,7 +2455,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C38" s="6">
         <f t="shared" si="6"/>
@@ -2526,7 +2526,7 @@
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" s="12">
         <f>SUM(K3:K38)</f>
@@ -2553,7 +2553,7 @@
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="4">
         <f>SUM(C3:C38)/ROWS(C3:C38)</f>
@@ -2580,7 +2580,7 @@
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="4">
         <f>MAX(H3:H38)</f>
@@ -2607,7 +2607,7 @@
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C43" s="11">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5396B24C-6EF7-436E-A045-7DE82B4902C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFC06C6-2A32-4A50-ACCF-F797D0095C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2772" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -561,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2306,12 +2306,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="7">
-        <f>D$34*0.5</f>
-        <v>8.25</v>
+        <f>D$34*0.55</f>
+        <v>9.0750000000000011</v>
       </c>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
-        <v>445.5</v>
+        <v>490.05000000000007</v>
       </c>
       <c r="F35" s="8">
         <v>44813</v>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="K35" s="10">
         <f t="shared" si="4"/>
-        <v>685.5</v>
+        <v>730.05000000000007</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="4"/>
@@ -2358,12 +2358,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="7">
-        <f t="shared" ref="D36:D38" si="8">D$34*0.5</f>
-        <v>8.25</v>
+        <f>D$34*0.55</f>
+        <v>9.0750000000000011</v>
       </c>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
-        <v>441.375</v>
+        <v>485.51250000000005</v>
       </c>
       <c r="F36" s="8">
         <v>44813</v>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="K36" s="10">
         <f t="shared" si="4"/>
-        <v>691.375</v>
+        <v>735.51250000000005</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="4"/>
@@ -2410,12 +2410,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="7">
-        <f t="shared" si="8"/>
-        <v>8.25</v>
+        <f>D$34*0.55</f>
+        <v>9.0750000000000011</v>
       </c>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
-        <v>437.25</v>
+        <v>480.97500000000008</v>
       </c>
       <c r="F37" s="8">
         <v>44813</v>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="K37" s="10">
         <f t="shared" si="4"/>
-        <v>697.25</v>
+        <v>740.97500000000014</v>
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="4"/>
@@ -2462,12 +2462,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="7">
-        <f t="shared" si="8"/>
-        <v>8.25</v>
+        <f>D$34*0.55</f>
+        <v>9.0750000000000011</v>
       </c>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
-        <v>433.125</v>
+        <v>476.43750000000006</v>
       </c>
       <c r="F38" s="8">
         <v>44813</v>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="K38" s="10">
         <f t="shared" si="4"/>
-        <v>703.125</v>
+        <v>746.4375</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="4"/>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C40" s="12">
         <f>SUM(K3:K38)</f>
-        <v>38405.25</v>
+        <v>38580.974999999999</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>

--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E6D112-E780-4DF2-AFB5-E538F55498A0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -171,13 +172,13 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -523,18 +524,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2242,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2289,7 +2290,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -232,6 +232,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -741,8 +744,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
-      <selection activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView topLeftCell="A17" workbookViewId="0" zoomScale="100">
+      <selection activeCell="C41" activeCellId="0" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -761,7 +764,7 @@
     <col min="12" max="16384" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.4">
+    <row r="1" ht="15">
       <c r="A1" s="2">
         <v>15</v>
       </c>
@@ -802,7 +805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="14.4">
+    <row r="3" ht="15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -842,7 +845,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" ht="14.4">
+    <row r="4" ht="15">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
@@ -887,7 +890,7 @@
         <v>1146.75</v>
       </c>
     </row>
-    <row r="5" ht="14.4">
+    <row r="5" ht="15">
       <c r="A5" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -932,7 +935,7 @@
         <v>1138.5</v>
       </c>
     </row>
-    <row r="6" ht="14.4">
+    <row r="6" ht="15">
       <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -977,7 +980,7 @@
         <v>1130.25</v>
       </c>
     </row>
-    <row r="7" ht="14.4">
+    <row r="7" ht="15">
       <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1022,7 +1025,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="8" ht="14.4">
+    <row r="8" ht="15">
       <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1067,7 +1070,7 @@
         <v>1113.75</v>
       </c>
     </row>
-    <row r="9" ht="14.4">
+    <row r="9" ht="15">
       <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -1112,7 +1115,7 @@
         <v>1105.5</v>
       </c>
     </row>
-    <row r="10" ht="14.4">
+    <row r="10" ht="15">
       <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -1157,7 +1160,7 @@
         <v>1097.25</v>
       </c>
     </row>
-    <row r="11" ht="14.4">
+    <row r="11" ht="15">
       <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1247,7 +1250,7 @@
         <v>1090.75</v>
       </c>
     </row>
-    <row r="13" ht="14.4">
+    <row r="13" ht="15">
       <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1292,7 +1295,7 @@
         <v>1092.5</v>
       </c>
     </row>
-    <row r="14" ht="14.4">
+    <row r="14" ht="15">
       <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1337,7 +1340,7 @@
         <v>1094.25</v>
       </c>
     </row>
-    <row r="15" ht="14.4">
+    <row r="15" ht="15">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1382,7 +1385,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="16" ht="14.4">
+    <row r="16" ht="15">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1427,7 +1430,7 @@
         <v>1097.75</v>
       </c>
     </row>
-    <row r="17" ht="14.4">
+    <row r="17" ht="15">
       <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1472,7 +1475,7 @@
         <v>1099.5</v>
       </c>
     </row>
-    <row r="18" ht="14.4">
+    <row r="18" ht="15">
       <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1517,7 +1520,7 @@
         <v>1101.25</v>
       </c>
     </row>
-    <row r="19" ht="14.4">
+    <row r="19" ht="15">
       <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1562,7 +1565,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="20" ht="14.4">
+    <row r="20" ht="15">
       <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1607,7 +1610,7 @@
         <v>1104.75</v>
       </c>
     </row>
-    <row r="21" ht="14.4">
+    <row r="21" ht="15">
       <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1652,7 +1655,7 @@
         <v>1106.5</v>
       </c>
     </row>
-    <row r="22" ht="14.4">
+    <row r="22" ht="15">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1697,7 +1700,7 @@
         <v>1108.25</v>
       </c>
     </row>
-    <row r="23" ht="14.4">
+    <row r="23" ht="15">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1742,7 +1745,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="24" ht="14.4">
+    <row r="24" ht="15">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1787,7 +1790,7 @@
         <v>1111.75</v>
       </c>
     </row>
-    <row r="25" ht="14.4">
+    <row r="25" ht="15">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1832,7 +1835,7 @@
         <v>1113.5</v>
       </c>
     </row>
-    <row r="26" ht="14.4">
+    <row r="26" ht="15">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1877,7 +1880,7 @@
         <v>1115.25</v>
       </c>
     </row>
-    <row r="27" ht="14.4">
+    <row r="27" ht="15">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1922,7 +1925,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="28" ht="14.4">
+    <row r="28" ht="15">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1967,7 +1970,7 @@
         <v>1118.75</v>
       </c>
     </row>
-    <row r="29" ht="14.4">
+    <row r="29" ht="15">
       <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2012,7 +2015,7 @@
         <v>1120.5</v>
       </c>
     </row>
-    <row r="30" ht="14.4">
+    <row r="30" ht="15">
       <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2057,7 +2060,7 @@
         <v>1122.25</v>
       </c>
     </row>
-    <row r="31" ht="14.4">
+    <row r="31" ht="15">
       <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2102,7 +2105,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="32" ht="14.4">
+    <row r="32" ht="15">
       <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2147,7 +2150,7 @@
         <v>1125.75</v>
       </c>
     </row>
-    <row r="33" ht="14.4">
+    <row r="33" ht="15">
       <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2192,7 +2195,7 @@
         <v>1127.5</v>
       </c>
     </row>
-    <row r="34" ht="14.4">
+    <row r="34" ht="15">
       <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2237,7 +2240,7 @@
         <v>1129.25</v>
       </c>
     </row>
-    <row r="35" ht="14.4">
+    <row r="35" ht="15">
       <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2282,7 +2285,7 @@
         <v>685.5</v>
       </c>
     </row>
-    <row r="36" ht="14.4">
+    <row r="36" ht="15">
       <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2327,7 +2330,7 @@
         <v>691.375</v>
       </c>
     </row>
-    <row r="37" ht="14.4">
+    <row r="37" ht="15">
       <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2372,7 +2375,7 @@
         <v>697.25</v>
       </c>
     </row>
-    <row r="38" ht="14.4">
+    <row r="38" ht="15">
       <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2417,7 +2420,7 @@
         <v>703.125</v>
       </c>
     </row>
-    <row r="40" ht="15.6">
+    <row r="40" ht="15">
       <c r="B40" s="6" t="s">
         <v>47</v>
       </c>
@@ -2426,16 +2429,16 @@
         <v>38405</v>
       </c>
     </row>
-    <row r="41" ht="15.6">
+    <row r="41" ht="14.4">
       <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="7">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" ht="15.6">
+    <row r="42" ht="15">
       <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
@@ -2456,7 +2459,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -214,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,13 +228,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,8 +738,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0" zoomScale="100">
-      <selection activeCell="C41" activeCellId="0" sqref="C41"/>
+    <sheetView workbookViewId="0" zoomScale="100">
+      <selection activeCell="C44" activeCellId="0" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -764,7 +758,7 @@
     <col min="12" max="16384" style="1" width="9.109375"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" ht="14.4">
       <c r="A1" s="2">
         <v>15</v>
       </c>
@@ -805,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="15">
+    <row r="3" ht="15.6">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -840,12 +834,12 @@
         <f t="shared" ref="J3:J38" si="2">I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="2">
         <f t="shared" ref="K3:K38" si="3">E3+J3</f>
         <v>1155</v>
       </c>
     </row>
-    <row r="4" ht="15">
+    <row r="4" ht="15.6">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A38" si="4">A3+1</f>
         <v>2</v>
@@ -885,12 +879,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="2">
         <f t="shared" si="3"/>
         <v>1146.75</v>
       </c>
     </row>
-    <row r="5" ht="15">
+    <row r="5" ht="15.6">
       <c r="A5" s="2">
         <f t="shared" si="4"/>
         <v>3</v>
@@ -930,12 +924,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="2">
         <f t="shared" si="3"/>
         <v>1138.5</v>
       </c>
     </row>
-    <row r="6" ht="15">
+    <row r="6" ht="15.6">
       <c r="A6" s="2">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -975,12 +969,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="2">
         <f t="shared" si="3"/>
         <v>1130.25</v>
       </c>
     </row>
-    <row r="7" ht="15">
+    <row r="7" ht="15.6">
       <c r="A7" s="2">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -1020,12 +1014,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="2">
         <f t="shared" si="3"/>
         <v>1122</v>
       </c>
     </row>
-    <row r="8" ht="15">
+    <row r="8" ht="15.6">
       <c r="A8" s="2">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -1065,12 +1059,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="2">
         <f t="shared" si="3"/>
         <v>1113.75</v>
       </c>
     </row>
-    <row r="9" ht="15">
+    <row r="9" ht="15.6">
       <c r="A9" s="2">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -1110,12 +1104,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="2">
         <f t="shared" si="3"/>
         <v>1105.5</v>
       </c>
     </row>
-    <row r="10" ht="15">
+    <row r="10" ht="15.6">
       <c r="A10" s="2">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -1155,12 +1149,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="2">
         <f t="shared" si="3"/>
         <v>1097.25</v>
       </c>
     </row>
-    <row r="11" ht="15">
+    <row r="11" ht="15.6">
       <c r="A11" s="2">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -1200,7 +1194,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="2">
         <f t="shared" si="3"/>
         <v>1089</v>
       </c>
@@ -1245,12 +1239,12 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="2">
         <f t="shared" si="3"/>
         <v>1090.75</v>
       </c>
     </row>
-    <row r="13" ht="15">
+    <row r="13" ht="15.6">
       <c r="A13" s="2">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -1290,12 +1284,12 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="2">
         <f t="shared" si="3"/>
         <v>1092.5</v>
       </c>
     </row>
-    <row r="14" ht="15">
+    <row r="14" ht="15.6">
       <c r="A14" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -1335,12 +1329,12 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="2">
         <f t="shared" si="3"/>
         <v>1094.25</v>
       </c>
     </row>
-    <row r="15" ht="15">
+    <row r="15" ht="15.6">
       <c r="A15" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -1380,12 +1374,12 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="2">
         <f t="shared" si="3"/>
         <v>1096</v>
       </c>
     </row>
-    <row r="16" ht="15">
+    <row r="16" ht="15.6">
       <c r="A16" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -1425,12 +1419,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="2">
         <f t="shared" si="3"/>
         <v>1097.75</v>
       </c>
     </row>
-    <row r="17" ht="15">
+    <row r="17" ht="15.6">
       <c r="A17" s="2">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -1470,12 +1464,12 @@
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
         <v>1099.5</v>
       </c>
     </row>
-    <row r="18" ht="15">
+    <row r="18" ht="15.6">
       <c r="A18" s="2">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -1515,12 +1509,12 @@
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="2">
         <f t="shared" si="3"/>
         <v>1101.25</v>
       </c>
     </row>
-    <row r="19" ht="15">
+    <row r="19" ht="15.6">
       <c r="A19" s="2">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -1560,12 +1554,12 @@
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="2">
         <f t="shared" si="3"/>
         <v>1103</v>
       </c>
     </row>
-    <row r="20" ht="15">
+    <row r="20" ht="15.6">
       <c r="A20" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -1605,12 +1599,12 @@
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="2">
         <f t="shared" si="3"/>
         <v>1104.75</v>
       </c>
     </row>
-    <row r="21" ht="15">
+    <row r="21" ht="15.6">
       <c r="A21" s="2">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -1650,12 +1644,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="2">
         <f t="shared" si="3"/>
         <v>1106.5</v>
       </c>
     </row>
-    <row r="22" ht="15">
+    <row r="22" ht="15.6">
       <c r="A22" s="2">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -1695,12 +1689,12 @@
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="2">
         <f t="shared" si="3"/>
         <v>1108.25</v>
       </c>
     </row>
-    <row r="23" ht="15">
+    <row r="23" ht="15.6">
       <c r="A23" s="2">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -1740,12 +1734,12 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="2">
         <f t="shared" si="3"/>
         <v>1110</v>
       </c>
     </row>
-    <row r="24" ht="15">
+    <row r="24" ht="15.6">
       <c r="A24" s="2">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -1785,12 +1779,12 @@
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="2">
         <f t="shared" si="3"/>
         <v>1111.75</v>
       </c>
     </row>
-    <row r="25" ht="15">
+    <row r="25" ht="15.6">
       <c r="A25" s="2">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -1830,12 +1824,12 @@
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="2">
         <f t="shared" si="3"/>
         <v>1113.5</v>
       </c>
     </row>
-    <row r="26" ht="15">
+    <row r="26" ht="15.6">
       <c r="A26" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -1875,12 +1869,12 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="2">
         <f t="shared" si="3"/>
         <v>1115.25</v>
       </c>
     </row>
-    <row r="27" ht="15">
+    <row r="27" ht="15.6">
       <c r="A27" s="2">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -1920,12 +1914,12 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="2">
         <f t="shared" si="3"/>
         <v>1117</v>
       </c>
     </row>
-    <row r="28" ht="15">
+    <row r="28" ht="15.6">
       <c r="A28" s="2">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -1965,12 +1959,12 @@
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="2">
         <f t="shared" si="3"/>
         <v>1118.75</v>
       </c>
     </row>
-    <row r="29" ht="15">
+    <row r="29" ht="15.6">
       <c r="A29" s="2">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -2010,12 +2004,12 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="2">
         <f t="shared" si="3"/>
         <v>1120.5</v>
       </c>
     </row>
-    <row r="30" ht="15">
+    <row r="30" ht="15.6">
       <c r="A30" s="2">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -2055,12 +2049,12 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="2">
         <f t="shared" si="3"/>
         <v>1122.25</v>
       </c>
     </row>
-    <row r="31" ht="15">
+    <row r="31" ht="15.6">
       <c r="A31" s="2">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -2100,12 +2094,12 @@
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="2">
         <f t="shared" si="3"/>
         <v>1124</v>
       </c>
     </row>
-    <row r="32" ht="15">
+    <row r="32" ht="15.6">
       <c r="A32" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2145,12 +2139,12 @@
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="2">
         <f t="shared" si="3"/>
         <v>1125.75</v>
       </c>
     </row>
-    <row r="33" ht="15">
+    <row r="33" ht="15.6">
       <c r="A33" s="2">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2190,12 +2184,12 @@
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="2">
         <f t="shared" si="3"/>
         <v>1127.5</v>
       </c>
     </row>
-    <row r="34" ht="15">
+    <row r="34" ht="15.6">
       <c r="A34" s="2">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2235,12 +2229,12 @@
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="2">
         <f t="shared" si="3"/>
         <v>1129.25</v>
       </c>
     </row>
-    <row r="35" ht="15">
+    <row r="35" ht="15.6">
       <c r="A35" s="2">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2280,12 +2274,12 @@
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="2">
         <f t="shared" si="3"/>
         <v>685.5</v>
       </c>
     </row>
-    <row r="36" ht="15">
+    <row r="36" ht="15.6">
       <c r="A36" s="2">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2325,12 +2319,12 @@
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="2">
         <f t="shared" si="3"/>
         <v>691.375</v>
       </c>
     </row>
-    <row r="37" ht="15">
+    <row r="37" ht="15.6">
       <c r="A37" s="2">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2370,12 +2364,12 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="2">
         <f t="shared" si="3"/>
         <v>697.25</v>
       </c>
     </row>
-    <row r="38" ht="15">
+    <row r="38" ht="15.6">
       <c r="A38" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2415,13 +2409,13 @@
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="2">
         <f t="shared" si="3"/>
         <v>703.125</v>
       </c>
     </row>
-    <row r="40" ht="15">
-      <c r="B40" s="6" t="s">
+    <row r="40" ht="15.6">
+      <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C40" s="3">
@@ -2429,17 +2423,17 @@
         <v>38405</v>
       </c>
     </row>
-    <row r="41" ht="14.4">
-      <c r="B41" s="6" t="s">
+    <row r="41" ht="15.6">
+      <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" ht="15">
-      <c r="B42" s="6" t="s">
+    <row r="42" ht="15.6">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2">
@@ -2448,18 +2442,18 @@
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C43" s="2">
-        <f>MAX(E3:E38)</f>
+        <f>MAX(K3:K38)</f>
         <v>1155</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/LR3/table_1_15.xlsx
+++ b/LR3/table_1_15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geggka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A98F2-9BFB-4F63-BFA9-2A24B73C43AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD52EB3-892C-4BEF-A12F-62BD3C59306D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D0059746-5701-412D-9FFB-98A7699B5073}"/>
   </bookViews>
@@ -190,6 +190,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -219,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +234,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -549,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E182EC-5036-4FAB-918D-7B9AE6F0B263}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2255,7 +2261,7 @@
       <c r="B43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="5">
         <f>MAX(K3:K38)</f>
         <v>1155</v>
       </c>
